--- a/scripts/Tiefling.xlsx
+++ b/scripts/Tiefling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="436">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1346,13 +1346,23 @@
   </si>
   <si>
     <t>seductress</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1457,59 +1467,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1529,6 +1541,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1806,7 +1819,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,6 +1835,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1834,6 +1850,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1847,6 +1867,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>63</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1575</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1871,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1884,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1897,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1910,7 +1934,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1923,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1936,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1949,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1962,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1975,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -1988,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -2001,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2014,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2027,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2040,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2053,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2066,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2079,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2092,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2105,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2118,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
@@ -2131,7 +2155,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -2144,7 +2168,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
@@ -2157,7 +2181,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
@@ -2170,7 +2194,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
@@ -2183,7 +2207,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
@@ -2196,7 +2220,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
@@ -2209,7 +2233,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
@@ -2222,7 +2246,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
@@ -2235,7 +2259,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
@@ -2248,7 +2272,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
@@ -2261,7 +2285,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
@@ -2274,7 +2298,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
@@ -2287,7 +2311,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
@@ -2300,7 +2324,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
@@ -2313,7 +2337,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
@@ -2326,7 +2350,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
@@ -2339,7 +2363,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
@@ -2352,7 +2376,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
@@ -2365,7 +2389,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
@@ -2378,7 +2402,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
@@ -2391,7 +2415,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
@@ -2404,7 +2428,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
@@ -2417,7 +2441,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
@@ -2430,7 +2454,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
@@ -2443,7 +2467,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
@@ -2456,7 +2480,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
@@ -2469,7 +2493,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
@@ -2482,7 +2506,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
@@ -2495,7 +2519,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
@@ -2508,7 +2532,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
@@ -2521,7 +2545,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
@@ -2534,7 +2558,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
@@ -2547,7 +2571,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
@@ -2560,7 +2584,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
@@ -2573,7 +2597,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
@@ -2586,7 +2610,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
@@ -2599,7 +2623,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
@@ -2612,7 +2636,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
@@ -2625,7 +2649,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
@@ -2638,7 +2662,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
@@ -2651,7 +2675,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
@@ -2664,7 +2688,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
@@ -2677,7 +2701,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
@@ -2690,7 +2714,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
@@ -2703,7 +2727,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2716,7 +2740,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
@@ -2729,7 +2753,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="10"/>
@@ -2742,7 +2766,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="10"/>
@@ -2755,7 +2779,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="10"/>
@@ -2768,7 +2792,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="10"/>
@@ -2781,7 +2805,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="10"/>
@@ -2794,7 +2818,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="10"/>
@@ -2807,7 +2831,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="10"/>
@@ -2820,7 +2844,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="10"/>
@@ -2833,7 +2857,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="10"/>
@@ -2846,7 +2870,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="10"/>
@@ -2859,7 +2883,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="7"/>
@@ -2872,7 +2896,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="7"/>
@@ -2885,7 +2909,7 @@
         <v>0.1</v>
       </c>
       <c r="C84" s="9" t="str">
-        <f>IF(B84&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D84" s="7"/>
@@ -2898,7 +2922,7 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="9" t="str">
-        <f>IF(B85&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D85" s="7"/>
@@ -2911,7 +2935,7 @@
         <v>0.1</v>
       </c>
       <c r="C86" s="9" t="str">
-        <f>IF(B86&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D86" s="7"/>
@@ -2924,7 +2948,7 @@
         <v>0.1</v>
       </c>
       <c r="C87" s="9" t="str">
-        <f>IF(B87&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D87" s="7"/>
@@ -2937,7 +2961,7 @@
         <v>0.1</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f>IF(B88&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D88" s="7"/>
@@ -2952,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,15 +2988,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2983,8 +3010,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2996,12 +3027,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +3047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -3020,11 +3055,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -3032,11 +3067,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -3044,11 +3079,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -3056,11 +3091,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3068,11 +3103,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3080,11 +3115,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -3092,11 +3127,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3104,11 +3139,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3116,11 +3151,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3128,11 +3163,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -3140,7 +3175,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3152,7 +3187,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3164,7 +3199,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3176,7 +3211,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3188,7 +3223,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3200,7 +3235,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3212,7 +3247,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3226,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3238,15 +3273,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3257,8 +3295,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3270,12 +3312,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3286,7 +3332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3294,11 +3340,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3306,11 +3352,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3318,11 +3364,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3330,11 +3376,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3342,11 +3388,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3354,11 +3400,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3366,11 +3412,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3378,11 +3424,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3390,11 +3436,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3402,11 +3448,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3426,7 +3472,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3438,7 +3484,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3450,7 +3496,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3462,7 +3508,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3474,7 +3520,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3486,7 +3532,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3498,7 +3544,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3515,7 +3561,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3531,6 +3577,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3543,6 +3592,10 @@
         <f>COUNTIF(C$6:C107, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3556,6 +3609,10 @@
         <f>COUNTIF(C$6:C107, "rare")</f>
         <v>45</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -3671,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C13:C44" si="1">IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -3684,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -3697,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -3710,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>common</v>
       </c>
       <c r="D16" s="7"/>
@@ -3723,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>common</v>
       </c>
       <c r="D17" s="7"/>
@@ -3736,7 +3793,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3749,7 +3806,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3762,7 +3819,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3775,7 +3832,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3788,7 +3845,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3801,7 +3858,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -3814,7 +3871,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -3827,7 +3884,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -3840,7 +3897,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -3853,7 +3910,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -3866,7 +3923,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -3879,7 +3936,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -3892,7 +3949,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -3905,7 +3962,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -3918,7 +3975,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -3931,7 +3988,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -3944,7 +4001,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -3957,7 +4014,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -3970,7 +4027,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -3983,7 +4040,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -3996,7 +4053,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4009,7 +4066,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4022,7 +4079,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4035,7 +4092,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4048,7 +4105,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4061,7 +4118,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4074,7 +4131,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4087,7 +4144,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C45:C76" si="2">IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="7"/>
@@ -4100,7 +4157,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D46" s="7"/>
@@ -4113,7 +4170,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D47" s="7"/>
@@ -4126,7 +4183,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D48" s="7"/>
@@ -4139,7 +4196,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D49" s="7"/>
@@ -4152,7 +4209,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D50" s="7"/>
@@ -4165,7 +4222,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D51" s="7"/>
@@ -4178,7 +4235,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D52" s="7"/>
@@ -4191,7 +4248,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D53" s="8"/>
@@ -4204,7 +4261,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D54" s="8"/>
@@ -4217,7 +4274,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D55" s="8"/>
@@ -4230,7 +4287,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D56" s="7"/>
@@ -4243,7 +4300,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D57" s="7"/>
@@ -4256,7 +4313,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D58" s="8"/>
@@ -4269,7 +4326,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D59" s="7"/>
@@ -4282,7 +4339,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D60" s="7"/>
@@ -4295,7 +4352,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D61" s="8"/>
@@ -4308,7 +4365,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -4325,7 +4382,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4341,6 +4398,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4353,6 +4413,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4366,6 +4430,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>36</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4390,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -4403,7 +4471,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -4416,7 +4484,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -4429,7 +4497,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -4442,7 +4510,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -4455,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -4468,7 +4536,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -4481,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -4494,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -4507,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -4520,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="7"/>
@@ -4533,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="7"/>
@@ -4546,7 +4614,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="7"/>
@@ -4559,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="7"/>
@@ -4572,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="7"/>
@@ -4585,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="7"/>
@@ -4598,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="7"/>
@@ -4611,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="7"/>
@@ -4624,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="7"/>
@@ -4637,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="7"/>
@@ -4650,7 +4718,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -4663,7 +4731,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -4676,7 +4744,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -4689,7 +4757,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -4702,7 +4770,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -4715,7 +4783,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -4728,7 +4796,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -4741,7 +4809,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -4754,7 +4822,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -4767,7 +4835,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -4780,7 +4848,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -4793,7 +4861,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -4806,7 +4874,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4819,7 +4887,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4832,7 +4900,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4845,7 +4913,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4858,7 +4926,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4871,7 +4939,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4884,7 +4952,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4897,7 +4965,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="7"/>
@@ -4910,7 +4978,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="7"/>
@@ -4923,7 +4991,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="7"/>
@@ -4936,7 +5004,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="7"/>
@@ -4949,7 +5017,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="7"/>
@@ -4962,7 +5030,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="7"/>
@@ -4975,7 +5043,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="7"/>
@@ -4988,7 +5056,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="7"/>
@@ -5001,7 +5069,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="7"/>
@@ -5014,7 +5082,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="7"/>
@@ -5027,7 +5095,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="7"/>
@@ -5040,7 +5108,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="7"/>
@@ -5053,7 +5121,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="7"/>
@@ -5066,7 +5134,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="7"/>
@@ -5079,7 +5147,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="7"/>
@@ -5092,7 +5160,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="7"/>
@@ -5105,7 +5173,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="7"/>
@@ -5120,10 +5188,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5132,15 +5200,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5151,8 +5222,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5164,8 +5239,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5176,7 +5255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5267,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -5200,7 +5279,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -5212,7 +5291,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -5224,7 +5303,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -5236,7 +5315,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>432</v>
       </c>
@@ -5248,7 +5327,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>430</v>
       </c>
@@ -5260,7 +5339,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>429</v>
       </c>
@@ -5272,7 +5351,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5284,7 +5363,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5296,7 +5375,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>431</v>
       </c>
@@ -5341,7 +5420,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5350,15 +5429,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5369,8 +5451,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5382,11 +5468,15 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5397,7 +5487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>434</v>
       </c>
@@ -5405,11 +5495,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5417,11 +5507,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5429,11 +5519,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>433</v>
       </c>
@@ -5441,11 +5531,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5453,11 +5543,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5465,11 +5555,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5477,11 +5567,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -5489,11 +5579,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
@@ -5534,7 +5624,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5550,6 +5640,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5562,6 +5655,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5575,6 +5672,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>27</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.421875</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -5599,7 +5700,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5612,7 +5713,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5625,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5638,7 +5739,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5651,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5664,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5677,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5690,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5703,7 +5804,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -5716,7 +5817,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -5729,7 +5830,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -5742,7 +5843,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -5755,7 +5856,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -5768,7 +5869,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5781,7 +5882,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -5794,7 +5895,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -5807,7 +5908,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -5820,7 +5921,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -5833,7 +5934,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -5846,7 +5947,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -5859,7 +5960,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -5872,7 +5973,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -5885,7 +5986,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -5898,7 +5999,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -5911,7 +6012,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -5924,7 +6025,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -5937,7 +6038,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -5950,7 +6051,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -5963,7 +6064,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -5976,7 +6077,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -5989,7 +6090,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -6002,7 +6103,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -6015,7 +6116,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -6028,7 +6129,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -6041,7 +6142,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -6294,7 +6395,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6310,6 +6411,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6322,6 +6426,10 @@
         <f>COUNTIF(C$6:C111, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6334,6 +6442,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C111, "rare")</f>
         <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.16250000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7460,7 +7572,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7476,6 +7588,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7488,6 +7603,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7501,6 +7620,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>5</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1388888888888889</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7525,7 +7648,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7538,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7551,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7564,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7577,7 +7700,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -7590,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -7603,7 +7726,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="10"/>
@@ -7616,7 +7739,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="10"/>
@@ -7629,7 +7752,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="10"/>
@@ -7642,7 +7765,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7655,7 +7778,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7858,7 +7981,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7874,6 +7997,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7886,6 +8012,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7899,6 +8029,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>17</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.265625</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7923,7 +8057,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C27" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7936,7 +8070,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7949,7 +8083,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7962,7 +8096,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7975,7 +8109,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7988,7 +8122,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8001,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8014,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8027,7 +8161,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -8040,7 +8174,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -8053,7 +8187,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8066,7 +8200,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8079,7 +8213,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8092,7 +8226,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8105,7 +8239,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8118,7 +8252,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8131,7 +8265,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8144,7 +8278,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
@@ -8157,7 +8291,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
@@ -8170,7 +8304,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
@@ -8183,7 +8317,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
@@ -8196,7 +8330,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8399,7 +8533,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8415,6 +8549,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8427,6 +8564,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8440,6 +8581,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>30</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.46875</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -8464,7 +8609,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C43" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8477,7 +8622,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8490,7 +8635,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8503,7 +8648,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8516,7 +8661,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8529,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8542,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8555,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8568,7 +8713,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -8581,7 +8726,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -8594,7 +8739,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8607,7 +8752,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8620,7 +8765,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8633,7 +8778,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8646,7 +8791,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8659,7 +8804,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8672,7 +8817,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8685,7 +8830,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -8698,7 +8843,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -8711,7 +8856,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -8724,7 +8869,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -8737,7 +8882,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8750,7 +8895,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8763,7 +8908,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8776,7 +8921,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8789,7 +8934,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8802,7 +8947,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8815,7 +8960,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8828,7 +8973,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8841,7 +8986,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="8"/>
@@ -8854,7 +8999,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="8"/>
@@ -8867,7 +9012,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="8"/>
@@ -8880,7 +9025,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
@@ -8893,7 +9038,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
@@ -8906,7 +9051,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
@@ -8919,7 +9064,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
@@ -8932,7 +9077,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
@@ -8945,7 +9090,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
@@ -8994,7 +9139,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9010,6 +9155,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9022,6 +9170,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9035,6 +9187,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>3</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9059,7 +9215,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C14" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9072,7 +9228,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9085,7 +9241,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9098,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9111,7 +9267,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9124,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9137,7 +9293,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
@@ -9150,7 +9306,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -9163,7 +9319,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9313,7 +9469,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9329,6 +9485,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9341,6 +9500,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9354,6 +9517,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>23</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9378,7 +9545,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9391,7 +9558,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9404,7 +9571,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9417,7 +9584,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9430,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9443,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9456,7 +9623,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9469,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9482,7 +9649,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9495,7 +9662,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9508,7 +9675,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9521,7 +9688,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9534,7 +9701,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9547,7 +9714,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -9560,7 +9727,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9573,7 +9740,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -9586,7 +9753,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9599,7 +9766,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9612,7 +9779,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -9625,7 +9792,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -9638,7 +9805,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -9651,7 +9818,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -9664,7 +9831,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -9677,7 +9844,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -9690,7 +9857,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -9703,7 +9870,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -9716,7 +9883,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -9729,7 +9896,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -9742,7 +9909,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -9755,7 +9922,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -9768,7 +9935,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -9786,7 +9953,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9802,6 +9969,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9814,6 +9984,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9827,6 +10001,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.171875</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9851,7 +10029,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9864,7 +10042,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9877,7 +10055,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9890,7 +10068,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9903,7 +10081,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9916,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9929,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -9942,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9955,7 +10133,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9968,7 +10146,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9981,7 +10159,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9994,7 +10172,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -10007,7 +10185,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -10020,7 +10198,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -10033,7 +10211,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -10046,7 +10224,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -10059,7 +10237,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -10072,7 +10250,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -10085,7 +10263,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>

--- a/scripts/Tiefling.xlsx
+++ b/scripts/Tiefling.xlsx
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2979,7 +2979,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3264,7 +3264,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3561,7 +3561,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3607,11 +3607,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C107, "rare")</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.3125</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" ref="C7:C12" si="0">IF(B7&gt;=1, "common", "rare")</f>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3663,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -3676,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -3689,7 +3689,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -3702,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -3715,7 +3715,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" ref="C13:C44" si="1">IF(B13&gt;=1, "common", "rare")</f>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -3741,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="7"/>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="7"/>
@@ -3793,7 +3793,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3806,7 +3806,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3819,7 +3819,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3832,7 +3832,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3845,7 +3845,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3858,520 +3858,400 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>77</v>
+      <c r="A39" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B39">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>76</v>
+      <c r="A40" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B40">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>75</v>
+      <c r="A41" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B41">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B42">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" ref="C45:C76" si="2">IF(B45&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C47" s="9"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C50" s="9"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C53" s="9"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C54" s="9"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C55" s="9"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C56" s="9"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C57" s="9"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="9"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B59">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="C62" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B13"/>
+  <sortState ref="A6:C62">
+    <sortCondition descending="1" ref="B62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4382,7 +4262,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5191,7 +5071,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5237,11 +5117,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,147 +5137,122 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5">
         <v>0.1</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C11" si="0">IF(B6&gt;=1,"common","rare")</f>
+        <f>IF(B6&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5">
         <v>0.1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B10" s="4">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B11" s="4">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f>IF(B12&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5420,7 +5275,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5624,7 +5479,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5670,11 +5525,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.421875</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5700,7 +5555,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5713,7 +5568,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5726,7 +5581,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5739,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5752,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5765,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5778,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5791,360 +5646,290 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="5">
+        <v>175</v>
+      </c>
+      <c r="B22" s="4">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B23" s="5">
+        <v>339</v>
+      </c>
+      <c r="B23" s="4">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B24" s="5">
+        <v>345</v>
+      </c>
+      <c r="B24" s="4">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6384,7 +6169,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C40">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6395,7 +6180,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7572,7 +7357,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7981,7 +7766,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8027,11 +7812,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.265625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8057,7 +7842,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C27" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -8070,7 +7855,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -8083,7 +7868,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -8096,7 +7881,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -8109,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8122,7 +7907,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8135,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8148,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8161,7 +7946,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -8174,7 +7959,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -8187,7 +7972,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8200,7 +7985,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8213,7 +7998,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8226,7 +8011,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8239,105 +8024,104 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
@@ -8349,7 +8133,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
@@ -8361,14 +8145,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8522,7 +8302,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C48">
-    <sortCondition descending="1" ref="B13"/>
+    <sortCondition descending="1" ref="B30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8533,7 +8313,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8579,11 +8359,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.46875</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8609,7 +8389,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C43" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8622,7 +8402,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8635,7 +8415,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8648,7 +8428,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8661,7 +8441,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8674,7 +8454,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8687,7 +8467,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8700,399 +8480,320 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14">
+        <v>212</v>
+      </c>
+      <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16">
+        <v>216</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17">
+        <v>231</v>
+      </c>
+      <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="5">
+        <v>245</v>
+      </c>
+      <c r="B28">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -9128,7 +8829,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C47">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9139,7 +8840,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9469,7 +9170,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9515,11 +9216,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.359375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9545,7 +9246,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9558,7 +9259,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9571,7 +9272,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9584,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9597,7 +9298,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9610,7 +9311,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9623,7 +9324,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9636,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9649,7 +9350,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9662,287 +9363,212 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9953,7 +9579,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
